--- a/wine.xlsx
+++ b/wine.xlsx
@@ -266,10 +266,10 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="7:7"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.65"/>
@@ -316,164 +316,150 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>450</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
+      <c r="A5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="4" t="n">
-        <v>550</v>
+        <v>299</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="n">
-        <v>299</v>
+        <v>350</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>399</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D8" s="4" t="n">
-        <v>350</v>
+        <v>499</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>399</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>499</v>
+        <v>550</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>399</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>550</v>
-      </c>
-      <c r="E12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
